--- a/biology/Botanique/Indocalamus/Indocalamus.xlsx
+++ b/biology/Botanique/Indocalamus/Indocalamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indocalamus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire d'Asie tropicale[3]. Ce sont des bambous à large feuilles, que l'on retrouve notamment dans différentes régions de Chine et d'Asie du Sud-Est
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indocalamus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire d'Asie tropicale. Ce sont des bambous à large feuilles, que l'on retrouve notamment dans différentes régions de Chine et d'Asie du Sud-Est
 Les feuilles d'Indocalamus tessellatus (chinois simplifié : 箬竹 ; pinyin : ruòzhú) et Indocalamus latifolius sont notamment utilisées pour la confection des zongzi, sorte de berlingots de riz gluant fourrés de différents ingrédients, entourés de ces feuilles et bouillis, ou réchauffés à la vapeur.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèces [4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces 
 Indocalamus amplexicaulis - Guangdong
 Indocalamus barbatus - Guangxi
 Indocalamus bashanensis - Sichuan
@@ -548,7 +562,7 @@
 Indocalamus victorialis - Sichuan
 Indocalamus wilsonii - Guizhou, Hubei, Sichuan
 Indocalamus youxiuensis - Sichuan
-Espèces précédemment incluses dans ce genre[4]
+Espèces précédemment incluses dans ce genre
 Voir : Acidosasa, Ampelocalamus, Arundinaria, Bashania, Bonia, Fargesia, Pleioblastus, Pseudosasa, Sinobambusa, Yushania.
 Indocalamus actinotrichus - Ampelocalamus actinotrichus
 Indocalamus andropogonoides - Yushania andropogonoides
@@ -601,9 +615,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Indocalamus » est dérivé des termes latins indus (indien) et calamus, dérivé du grec κάλαμος (roseau)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Indocalamus » est dérivé des termes latins indus (indien) et calamus, dérivé du grec κάλαμος (roseau).
 </t>
         </is>
       </c>
